--- a/Instructions.xlsx
+++ b/Instructions.xlsx
@@ -9,11 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13584" windowHeight="5664"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="13584" windowHeight="5664"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$1</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="82">
   <si>
     <t>ADD</t>
   </si>
@@ -203,9 +206,6 @@
     <t>ALU?</t>
   </si>
   <si>
-    <t>memory?</t>
-  </si>
-  <si>
     <t>in prog</t>
   </si>
   <si>
@@ -215,9 +215,6 @@
     <t>38 (10 0110)</t>
   </si>
   <si>
-    <t>0011 10</t>
-  </si>
-  <si>
     <t>15 (00 1110)</t>
   </si>
   <si>
@@ -237,6 +234,45 @@
   </si>
   <si>
     <t>yes but check</t>
+  </si>
+  <si>
+    <t>Control Unit:</t>
+  </si>
+  <si>
+    <t>RegDst</t>
+  </si>
+  <si>
+    <t>ALUSrc</t>
+  </si>
+  <si>
+    <t>MemtoReg</t>
+  </si>
+  <si>
+    <t>Reg-Write</t>
+  </si>
+  <si>
+    <t>Mem-Read</t>
+  </si>
+  <si>
+    <t>Mem-Write</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>ALUop</t>
+  </si>
+  <si>
+    <t>yeah</t>
+  </si>
+  <si>
+    <t>dc</t>
+  </si>
+  <si>
+    <t>SEB</t>
+  </si>
+  <si>
+    <t>edit</t>
   </si>
 </sst>
 </file>
@@ -331,7 +367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -352,7 +388,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -673,20 +720,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:R72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B26" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="G13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.21875" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" customWidth="1"/>
+    <col min="4" max="4" width="7.109375" customWidth="1"/>
+    <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" customWidth="1"/>
+    <col min="10" max="11" width="11.21875" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" customWidth="1"/>
+    <col min="13" max="13" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -706,72 +759,175 @@
         <v>58</v>
       </c>
       <c r="G1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="19"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="18">
+        <v>1</v>
+      </c>
+      <c r="I2" s="18">
+        <v>0</v>
+      </c>
+      <c r="J2" s="18">
+        <v>0</v>
+      </c>
+      <c r="K2" s="18">
+        <v>1</v>
+      </c>
+      <c r="L2" s="18">
+        <v>0</v>
+      </c>
+      <c r="M2" s="18">
+        <v>0</v>
+      </c>
+      <c r="N2" s="18">
+        <v>0</v>
+      </c>
+      <c r="O2" s="18">
+        <v>2</v>
+      </c>
+      <c r="P2" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="12"/>
+      <c r="H3" s="13">
+        <v>1</v>
+      </c>
+      <c r="I3" s="13">
+        <v>0</v>
+      </c>
+      <c r="J3" s="13">
+        <v>0</v>
+      </c>
+      <c r="K3" s="13">
+        <v>1</v>
+      </c>
+      <c r="L3" s="13">
+        <v>0</v>
+      </c>
+      <c r="M3" s="13">
+        <v>0</v>
+      </c>
+      <c r="N3" s="13">
+        <v>0</v>
+      </c>
+      <c r="O3" s="13">
+        <v>2</v>
+      </c>
+      <c r="P3" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3">
-        <v>20</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="5">
-        <v>8</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="G4" s="12"/>
+      <c r="H4" s="13">
+        <v>1</v>
+      </c>
+      <c r="I4" s="13">
+        <v>0</v>
+      </c>
+      <c r="J4" s="13">
+        <v>0</v>
+      </c>
+      <c r="K4" s="13">
+        <v>1</v>
+      </c>
+      <c r="L4" s="13">
+        <v>0</v>
+      </c>
+      <c r="M4" s="13">
+        <v>0</v>
+      </c>
+      <c r="N4" s="13">
+        <v>0</v>
+      </c>
+      <c r="O4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="5">
-        <v>9</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P4" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>43</v>
@@ -780,18 +936,46 @@
         <v>0</v>
       </c>
       <c r="D5" s="3">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="13">
+        <v>1</v>
+      </c>
+      <c r="I5" s="13">
+        <v>0</v>
+      </c>
+      <c r="J5" s="13">
+        <v>0</v>
+      </c>
+      <c r="K5" s="13">
+        <v>1</v>
+      </c>
+      <c r="L5" s="13">
+        <v>0</v>
+      </c>
+      <c r="M5" s="13">
+        <v>0</v>
+      </c>
+      <c r="N5" s="13">
+        <v>0</v>
+      </c>
+      <c r="O5" s="13">
+        <v>2</v>
+      </c>
+      <c r="P5" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>43</v>
@@ -800,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="3">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>45</v>
@@ -808,104 +992,278 @@
       <c r="F6" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G6" s="12"/>
+      <c r="H6" s="13">
+        <v>1</v>
+      </c>
+      <c r="I6" s="13">
+        <v>0</v>
+      </c>
+      <c r="J6" s="13">
+        <v>0</v>
+      </c>
+      <c r="K6" s="13">
+        <v>1</v>
+      </c>
+      <c r="L6" s="13">
+        <v>0</v>
+      </c>
+      <c r="M6" s="13">
+        <v>0</v>
+      </c>
+      <c r="N6" s="13">
+        <v>0</v>
+      </c>
+      <c r="O6" s="13">
+        <v>2</v>
+      </c>
+      <c r="P6" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>27</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G7" s="12"/>
+      <c r="H7" s="13">
+        <v>1</v>
+      </c>
+      <c r="I7" s="13">
+        <v>0</v>
+      </c>
+      <c r="J7" s="13">
+        <v>0</v>
+      </c>
+      <c r="K7" s="13">
+        <v>1</v>
+      </c>
+      <c r="L7" s="13">
+        <v>0</v>
+      </c>
+      <c r="M7" s="13">
+        <v>0</v>
+      </c>
+      <c r="N7" s="13">
+        <v>0</v>
+      </c>
+      <c r="O7" s="13">
+        <v>2</v>
+      </c>
+      <c r="P7" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="5">
-        <v>4</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="5">
-        <v>5</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="4" t="s">
+      <c r="G8" s="12"/>
+      <c r="H8" s="13">
+        <v>1</v>
+      </c>
+      <c r="I8" s="13">
+        <v>0</v>
+      </c>
+      <c r="J8" s="13">
+        <v>0</v>
+      </c>
+      <c r="K8" s="13">
+        <v>1</v>
+      </c>
+      <c r="L8" s="13">
+        <v>0</v>
+      </c>
+      <c r="M8" s="13">
+        <v>0</v>
+      </c>
+      <c r="N8" s="13">
+        <v>0</v>
+      </c>
+      <c r="O8" s="13">
+        <v>2</v>
+      </c>
+      <c r="P8" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="13">
+        <v>1</v>
+      </c>
+      <c r="I9" s="13">
+        <v>0</v>
+      </c>
+      <c r="J9" s="13">
+        <v>0</v>
+      </c>
+      <c r="K9" s="13">
+        <v>1</v>
+      </c>
+      <c r="L9" s="13">
+        <v>0</v>
+      </c>
+      <c r="M9" s="13">
+        <v>0</v>
+      </c>
+      <c r="N9" s="13">
+        <v>0</v>
+      </c>
+      <c r="O9" s="13">
+        <v>2</v>
+      </c>
+      <c r="P9" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="12"/>
+      <c r="H10" s="13">
+        <v>1</v>
+      </c>
+      <c r="I10" s="13">
+        <v>0</v>
+      </c>
+      <c r="J10" s="13">
+        <v>0</v>
+      </c>
+      <c r="K10" s="13">
+        <v>1</v>
+      </c>
+      <c r="L10" s="13">
+        <v>0</v>
+      </c>
+      <c r="M10" s="13">
+        <v>0</v>
+      </c>
+      <c r="N10" s="13">
+        <v>0</v>
+      </c>
+      <c r="O10" s="13">
+        <v>2</v>
+      </c>
+      <c r="P10" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="7">
+      <c r="G11" s="12"/>
+      <c r="H11" s="13">
+        <v>1</v>
+      </c>
+      <c r="I11" s="13">
+        <v>0</v>
+      </c>
+      <c r="J11" s="13">
+        <v>0</v>
+      </c>
+      <c r="K11" s="13">
+        <v>1</v>
+      </c>
+      <c r="L11" s="13">
+        <v>0</v>
+      </c>
+      <c r="M11" s="13">
+        <v>0</v>
+      </c>
+      <c r="N11" s="13">
+        <v>0</v>
+      </c>
+      <c r="O11" s="13">
         <v>2</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="7">
-        <v>3</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P11" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>43</v>
@@ -913,8 +1271,8 @@
       <c r="C12" s="3">
         <v>0</v>
       </c>
-      <c r="D12" s="3">
-        <v>8</v>
+      <c r="D12" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>45</v>
@@ -922,156 +1280,376 @@
       <c r="F12" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G12" s="12"/>
+      <c r="H12" s="13">
+        <v>1</v>
+      </c>
+      <c r="I12" s="13">
+        <v>0</v>
+      </c>
+      <c r="J12" s="13">
+        <v>0</v>
+      </c>
+      <c r="K12" s="13">
+        <v>1</v>
+      </c>
+      <c r="L12" s="13">
+        <v>0</v>
+      </c>
+      <c r="M12" s="13">
+        <v>0</v>
+      </c>
+      <c r="N12" s="13">
+        <v>0</v>
+      </c>
+      <c r="O12" s="13">
+        <v>2</v>
+      </c>
+      <c r="P12" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="12"/>
+      <c r="H13" s="13">
+        <v>1</v>
+      </c>
+      <c r="I13" s="13">
+        <v>0</v>
+      </c>
+      <c r="J13" s="13">
+        <v>0</v>
+      </c>
+      <c r="K13" s="13">
+        <v>1</v>
+      </c>
+      <c r="L13" s="13">
+        <v>0</v>
+      </c>
+      <c r="M13" s="13">
+        <v>0</v>
+      </c>
+      <c r="N13" s="13">
+        <v>0</v>
+      </c>
+      <c r="O13" s="13">
+        <v>2</v>
+      </c>
+      <c r="P13" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="13">
+        <v>1</v>
+      </c>
+      <c r="I14" s="13">
+        <v>0</v>
+      </c>
+      <c r="J14" s="13">
+        <v>0</v>
+      </c>
+      <c r="K14" s="13">
+        <v>1</v>
+      </c>
+      <c r="L14" s="13">
+        <v>0</v>
+      </c>
+      <c r="M14" s="13">
+        <v>0</v>
+      </c>
+      <c r="N14" s="13">
+        <v>0</v>
+      </c>
+      <c r="O14" s="13">
+        <v>2</v>
+      </c>
+      <c r="P14" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3">
+        <v>22</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="12"/>
+      <c r="H15" s="13">
+        <v>1</v>
+      </c>
+      <c r="I15" s="13">
+        <v>0</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0</v>
+      </c>
+      <c r="K15" s="13">
+        <v>1</v>
+      </c>
+      <c r="L15" s="13">
+        <v>0</v>
+      </c>
+      <c r="M15" s="13">
+        <v>0</v>
+      </c>
+      <c r="N15" s="13">
+        <v>0</v>
+      </c>
+      <c r="O15" s="13">
+        <v>2</v>
+      </c>
+      <c r="P15" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3">
+        <v>23</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="12"/>
+      <c r="H16" s="13">
+        <v>1</v>
+      </c>
+      <c r="I16" s="13">
+        <v>0</v>
+      </c>
+      <c r="J16" s="13">
+        <v>0</v>
+      </c>
+      <c r="K16" s="13">
+        <v>1</v>
+      </c>
+      <c r="L16" s="13">
+        <v>0</v>
+      </c>
+      <c r="M16" s="13">
+        <v>0</v>
+      </c>
+      <c r="N16" s="13">
+        <v>0</v>
+      </c>
+      <c r="O16" s="13">
+        <v>2</v>
+      </c>
+      <c r="P16" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="12"/>
+      <c r="H17" s="13">
+        <v>1</v>
+      </c>
+      <c r="I17" s="13">
+        <v>0</v>
+      </c>
+      <c r="J17" s="13">
+        <v>0</v>
+      </c>
+      <c r="K17" s="13">
+        <v>1</v>
+      </c>
+      <c r="L17" s="13">
+        <v>0</v>
+      </c>
+      <c r="M17" s="13">
+        <v>0</v>
+      </c>
+      <c r="N17" s="13">
+        <v>0</v>
+      </c>
+      <c r="O17" s="13">
+        <v>2</v>
+      </c>
+      <c r="P17" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="5">
-        <v>24</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="C18" s="5">
+        <v>8</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="E18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="12"/>
+      <c r="H18" s="14">
+        <v>0</v>
+      </c>
+      <c r="I18" s="14">
+        <v>1</v>
+      </c>
+      <c r="J18" s="14">
+        <v>0</v>
+      </c>
+      <c r="K18" s="14">
+        <v>1</v>
+      </c>
+      <c r="L18" s="14">
+        <v>0</v>
+      </c>
+      <c r="M18" s="14">
+        <v>0</v>
+      </c>
+      <c r="N18" s="14">
+        <v>0</v>
+      </c>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="5">
-        <v>25</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="C19" s="5">
+        <v>9</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="9">
-        <v>30</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="5">
-        <v>23</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="3">
-        <v>0</v>
-      </c>
-      <c r="D18" s="3">
-        <v>27</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="3">
-        <v>0</v>
-      </c>
-      <c r="D19" s="3">
-        <v>25</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="12"/>
+      <c r="H19" s="14">
+        <v>0</v>
+      </c>
+      <c r="I19" s="14">
+        <v>1</v>
+      </c>
+      <c r="J19" s="14">
+        <v>0</v>
+      </c>
+      <c r="K19" s="14">
+        <v>1</v>
+      </c>
+      <c r="L19" s="14">
+        <v>0</v>
+      </c>
+      <c r="M19" s="14">
+        <v>0</v>
+      </c>
+      <c r="N19" s="14">
+        <v>0</v>
+      </c>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>56</v>
@@ -1079,36 +1657,89 @@
       <c r="E20" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="3">
-        <v>0</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="2" t="s">
+      <c r="F20" s="4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G20" s="12"/>
+      <c r="H20" s="14">
+        <v>0</v>
+      </c>
+      <c r="I20" s="14">
+        <v>1</v>
+      </c>
+      <c r="J20" s="14">
+        <v>0</v>
+      </c>
+      <c r="K20" s="14">
+        <v>1</v>
+      </c>
+      <c r="L20" s="14">
+        <v>0</v>
+      </c>
+      <c r="M20" s="14">
+        <v>0</v>
+      </c>
+      <c r="N20" s="14">
+        <v>0</v>
+      </c>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="19"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="14">
+        <v>0</v>
+      </c>
+      <c r="I21" s="14">
+        <v>1</v>
+      </c>
+      <c r="J21" s="14">
+        <v>0</v>
+      </c>
+      <c r="K21" s="14">
+        <v>1</v>
+      </c>
+      <c r="L21" s="14">
+        <v>0</v>
+      </c>
+      <c r="M21" s="14">
+        <v>0</v>
+      </c>
+      <c r="N21" s="14">
+        <v>0</v>
+      </c>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>51</v>
+      <c r="C22" s="5">
+        <v>4</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>56</v>
@@ -1116,16 +1747,47 @@
       <c r="E22" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F22" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" s="12"/>
+      <c r="H22" s="16">
+        <v>0</v>
+      </c>
+      <c r="I22" s="16">
+        <v>0</v>
+      </c>
+      <c r="J22" s="16">
+        <v>0</v>
+      </c>
+      <c r="K22" s="16">
+        <v>0</v>
+      </c>
+      <c r="L22" s="16">
+        <v>0</v>
+      </c>
+      <c r="M22" s="16">
+        <v>0</v>
+      </c>
+      <c r="N22" s="16">
+        <v>1</v>
+      </c>
+      <c r="O22" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="P22" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>52</v>
+      <c r="C23" s="5">
+        <v>5</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>56</v>
@@ -1133,116 +1795,276 @@
       <c r="E23" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="3">
-        <v>0</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F24" s="2" t="s">
+      <c r="F23" s="4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="3">
-        <v>0</v>
-      </c>
-      <c r="D25" s="3">
-        <v>0</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="3">
-        <v>0</v>
-      </c>
-      <c r="D26" s="3">
+      <c r="G23" s="12"/>
+      <c r="H23" s="14">
+        <v>0</v>
+      </c>
+      <c r="I23" s="14">
+        <v>0</v>
+      </c>
+      <c r="J23" s="14">
+        <v>0</v>
+      </c>
+      <c r="K23" s="14">
+        <v>0</v>
+      </c>
+      <c r="L23" s="14">
+        <v>0</v>
+      </c>
+      <c r="M23" s="14">
+        <v>0</v>
+      </c>
+      <c r="N23" s="14">
+        <v>1</v>
+      </c>
+      <c r="O23" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="P23" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="19"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="14">
+        <v>0</v>
+      </c>
+      <c r="I24" s="14">
+        <v>0</v>
+      </c>
+      <c r="J24" s="14">
+        <v>0</v>
+      </c>
+      <c r="K24" s="14">
+        <v>0</v>
+      </c>
+      <c r="L24" s="14">
+        <v>0</v>
+      </c>
+      <c r="M24" s="14">
+        <v>0</v>
+      </c>
+      <c r="N24" s="14">
+        <v>1</v>
+      </c>
+      <c r="O24" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="P24" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="19"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="14">
+        <v>0</v>
+      </c>
+      <c r="I25" s="14">
+        <v>0</v>
+      </c>
+      <c r="J25" s="14">
+        <v>0</v>
+      </c>
+      <c r="K25" s="14">
+        <v>0</v>
+      </c>
+      <c r="L25" s="14">
+        <v>0</v>
+      </c>
+      <c r="M25" s="14">
+        <v>0</v>
+      </c>
+      <c r="N25" s="14">
+        <v>1</v>
+      </c>
+      <c r="O25" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="P25" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="12"/>
+      <c r="H26" s="14">
+        <v>0</v>
+      </c>
+      <c r="I26" s="14">
+        <v>0</v>
+      </c>
+      <c r="J26" s="14">
+        <v>0</v>
+      </c>
+      <c r="K26" s="14">
+        <v>0</v>
+      </c>
+      <c r="L26" s="14">
+        <v>0</v>
+      </c>
+      <c r="M26" s="14">
+        <v>0</v>
+      </c>
+      <c r="N26" s="14">
+        <v>1</v>
+      </c>
+      <c r="O26" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="P26" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="7">
         <v>2</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="5">
-        <v>28</v>
-      </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="9">
-        <v>38</v>
-      </c>
-      <c r="D28" s="9" t="s">
+      <c r="E27" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="19"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="14">
+        <v>0</v>
+      </c>
+      <c r="I27" s="14">
+        <v>0</v>
+      </c>
+      <c r="J27" s="14">
+        <v>0</v>
+      </c>
+      <c r="K27" s="14">
+        <v>0</v>
+      </c>
+      <c r="L27" s="14">
+        <v>0</v>
+      </c>
+      <c r="M27" s="14">
+        <v>0</v>
+      </c>
+      <c r="N27" s="14">
+        <v>0</v>
+      </c>
+      <c r="O27" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="P27" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="7">
+        <v>3</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
-        <v>27</v>
+      <c r="E28" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" s="19"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="14">
+        <v>0</v>
+      </c>
+      <c r="I28" s="14">
+        <v>0</v>
+      </c>
+      <c r="J28" s="14">
+        <v>0</v>
+      </c>
+      <c r="K28" s="14">
+        <v>0</v>
+      </c>
+      <c r="L28" s="14">
+        <v>0</v>
+      </c>
+      <c r="M28" s="14">
+        <v>0</v>
+      </c>
+      <c r="N28" s="14">
+        <v>0</v>
+      </c>
+      <c r="O28" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="P28" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="5">
-        <v>29</v>
+      <c r="C29" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>56</v>
@@ -1250,19 +2072,45 @@
       <c r="E29" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F29" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F29" s="19"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="16">
+        <v>0</v>
+      </c>
+      <c r="I29" s="16">
+        <v>1</v>
+      </c>
+      <c r="J29" s="16">
+        <v>1</v>
+      </c>
+      <c r="K29" s="16">
+        <v>1</v>
+      </c>
+      <c r="L29" s="16">
+        <v>1</v>
+      </c>
+      <c r="M29" s="16">
+        <v>0</v>
+      </c>
+      <c r="N29" s="16">
+        <v>0</v>
+      </c>
+      <c r="O29" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="P29" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>54</v>
+      <c r="C30" s="5">
+        <v>24</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>56</v>
@@ -1271,148 +2119,418 @@
         <v>45</v>
       </c>
       <c r="F30" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G30" s="12"/>
+      <c r="H30" s="14">
+        <v>0</v>
+      </c>
+      <c r="I30" s="14">
+        <v>1</v>
+      </c>
+      <c r="J30" s="14">
+        <v>1</v>
+      </c>
+      <c r="K30" s="14">
+        <v>1</v>
+      </c>
+      <c r="L30" s="14">
+        <v>1</v>
+      </c>
+      <c r="M30" s="14">
+        <v>0</v>
+      </c>
+      <c r="N30" s="14">
+        <v>0</v>
+      </c>
+      <c r="O30" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="P30" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="5">
+        <v>25</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G31" s="12"/>
+      <c r="H31" s="14">
+        <v>0</v>
+      </c>
+      <c r="I31" s="14">
+        <v>1</v>
+      </c>
+      <c r="J31" s="14">
+        <v>1</v>
+      </c>
+      <c r="K31" s="14">
+        <v>1</v>
+      </c>
+      <c r="L31" s="14">
+        <v>1</v>
+      </c>
+      <c r="M31" s="14">
+        <v>0</v>
+      </c>
+      <c r="N31" s="14">
+        <v>0</v>
+      </c>
+      <c r="O31" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="P31" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G32" s="12"/>
+      <c r="H32" s="14">
+        <v>0</v>
+      </c>
+      <c r="I32" s="14">
+        <v>1</v>
+      </c>
+      <c r="J32" s="14">
+        <v>1</v>
+      </c>
+      <c r="K32" s="14">
+        <v>1</v>
+      </c>
+      <c r="L32" s="14">
+        <v>1</v>
+      </c>
+      <c r="M32" s="14">
+        <v>0</v>
+      </c>
+      <c r="N32" s="14">
+        <v>0</v>
+      </c>
+      <c r="O32" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="P32" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="5">
+        <v>23</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
+      <c r="G33" s="12"/>
+      <c r="H33" s="16">
+        <v>0</v>
+      </c>
+      <c r="I33" s="16">
+        <v>1</v>
+      </c>
+      <c r="J33" s="16">
+        <v>1</v>
+      </c>
+      <c r="K33" s="16">
+        <v>1</v>
+      </c>
+      <c r="L33" s="16">
+        <v>1</v>
+      </c>
+      <c r="M33" s="16">
+        <v>0</v>
+      </c>
+      <c r="N33" s="16">
+        <v>0</v>
+      </c>
+      <c r="O33" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="P33" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" s="19"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="14">
+        <v>0</v>
+      </c>
+      <c r="I34" s="14">
+        <v>1</v>
+      </c>
+      <c r="J34" s="14">
+        <v>0</v>
+      </c>
+      <c r="K34" s="14">
+        <v>1</v>
+      </c>
+      <c r="L34" s="14">
+        <v>0</v>
+      </c>
+      <c r="M34" s="14">
+        <v>0</v>
+      </c>
+      <c r="N34" s="14">
+        <v>0</v>
+      </c>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" s="19"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="14">
+        <v>0</v>
+      </c>
+      <c r="I35" s="14">
+        <v>1</v>
+      </c>
+      <c r="J35" s="14">
+        <v>0</v>
+      </c>
+      <c r="K35" s="14">
+        <v>1</v>
+      </c>
+      <c r="L35" s="14">
+        <v>0</v>
+      </c>
+      <c r="M35" s="14">
+        <v>0</v>
+      </c>
+      <c r="N35" s="14">
+        <v>0</v>
+      </c>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F36" s="19"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="14">
+        <v>0</v>
+      </c>
+      <c r="I36" s="14">
+        <v>1</v>
+      </c>
+      <c r="J36" s="14">
+        <v>0</v>
+      </c>
+      <c r="K36" s="14">
+        <v>1</v>
+      </c>
+      <c r="L36" s="14">
+        <v>0</v>
+      </c>
+      <c r="M36" s="14">
+        <v>0</v>
+      </c>
+      <c r="N36" s="14">
+        <v>0</v>
+      </c>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="5">
+        <v>28</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G37" s="12"/>
+      <c r="H37" s="16">
+        <v>0</v>
+      </c>
+      <c r="I37" s="16">
+        <v>1</v>
+      </c>
+      <c r="J37" s="16">
+        <v>0</v>
+      </c>
+      <c r="K37" s="16">
+        <v>0</v>
+      </c>
+      <c r="L37" s="16">
+        <v>0</v>
+      </c>
+      <c r="M37" s="16">
+        <v>1</v>
+      </c>
+      <c r="N37" s="16">
+        <v>0</v>
+      </c>
+      <c r="O37" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="P37" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="5">
         <v>29</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="3">
-        <v>0</v>
-      </c>
-      <c r="D31" s="3">
-        <v>22</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="3">
-        <v>0</v>
-      </c>
-      <c r="D32" s="3">
-        <v>23</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="11"/>
-      <c r="H34" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="11"/>
-    </row>
-    <row r="36" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" s="2">
-        <v>0</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37" s="2">
-        <v>0</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C38" s="2">
-        <v>0</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="4" t="s">
-        <v>35</v>
+      <c r="D38" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G38" s="12"/>
+      <c r="H38" s="14">
+        <v>0</v>
+      </c>
+      <c r="I38" s="14">
+        <v>1</v>
+      </c>
+      <c r="J38" s="14">
+        <v>0</v>
+      </c>
+      <c r="K38" s="14">
+        <v>0</v>
+      </c>
+      <c r="L38" s="14">
+        <v>0</v>
+      </c>
+      <c r="M38" s="14">
+        <v>1</v>
+      </c>
+      <c r="N38" s="14">
+        <v>0</v>
+      </c>
+      <c r="O38" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="P38" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>56</v>
@@ -1420,83 +2538,210 @@
       <c r="E39" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B40" s="4" t="s">
+      <c r="F39" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G39" s="12"/>
+      <c r="H39" s="14">
+        <v>0</v>
+      </c>
+      <c r="I39" s="14">
+        <v>1</v>
+      </c>
+      <c r="J39" s="14">
+        <v>0</v>
+      </c>
+      <c r="K39" s="14">
+        <v>0</v>
+      </c>
+      <c r="L39" s="14">
+        <v>0</v>
+      </c>
+      <c r="M39" s="14">
+        <v>1</v>
+      </c>
+      <c r="N39" s="14">
+        <v>0</v>
+      </c>
+      <c r="O39" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="P39" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D40" s="5" t="s">
+      <c r="C40" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="E40" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B41" s="4" t="s">
+      <c r="E40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G40" s="21"/>
+      <c r="H40" s="17">
+        <v>0</v>
+      </c>
+      <c r="I40" s="17">
+        <v>1</v>
+      </c>
+      <c r="J40" s="17">
+        <v>0</v>
+      </c>
+      <c r="K40" s="17">
+        <v>0</v>
+      </c>
+      <c r="L40" s="17">
+        <v>0</v>
+      </c>
+      <c r="M40" s="17">
+        <v>1</v>
+      </c>
+      <c r="N40" s="17">
+        <v>0</v>
+      </c>
+      <c r="O40" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="P40" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="21"/>
+      <c r="R40" s="21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="1:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D41" s="5" t="s">
+      <c r="C42" s="9">
+        <v>30</v>
+      </c>
+      <c r="D42" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E41" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="4" t="s">
+      <c r="E42" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G42" s="12"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="55" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C55" s="9">
         <v>38</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D42" s="5" t="s">
+      <c r="D55" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E42" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45">
+      <c r="E55" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G55" s="12"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="14"/>
+      <c r="K55" s="14"/>
+      <c r="L55" s="14"/>
+      <c r="M55" s="14"/>
+      <c r="N55" s="14"/>
+      <c r="O55" s="14"/>
+      <c r="P55" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="61" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="10"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="14"/>
+      <c r="K61" s="14"/>
+      <c r="L61" s="14"/>
+      <c r="M61" s="14"/>
+      <c r="N61" s="14"/>
+      <c r="O61" s="14"/>
+      <c r="P61" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="14"/>
+      <c r="K62" s="14"/>
+      <c r="L62" s="14"/>
+      <c r="M62" s="14"/>
+      <c r="N62" s="14"/>
+      <c r="O62" s="14"/>
+      <c r="P62" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72">
         <f xml:space="preserve"> 32 + (43-36)</f>
         <v>39</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:P1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>